--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrtn-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrtn-Gfra2.xlsx
@@ -91,7 +91,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.292704</v>
+        <v>0.8174055</v>
       </c>
       <c r="N2">
-        <v>0.585408</v>
+        <v>1.634811</v>
       </c>
       <c r="O2">
-        <v>0.03956727483679398</v>
+        <v>0.09761389918309914</v>
       </c>
       <c r="P2">
-        <v>0.03362885612842486</v>
+        <v>0.08793380245030721</v>
       </c>
       <c r="Q2">
-        <v>0.03548553038400001</v>
+        <v>0.09909692968424999</v>
       </c>
       <c r="R2">
-        <v>0.141942121536</v>
+        <v>0.396387718737</v>
       </c>
       <c r="S2">
-        <v>0.03956727483679398</v>
+        <v>0.09761389918309914</v>
       </c>
       <c r="T2">
-        <v>0.03362885612842486</v>
+        <v>0.08793380245030721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>5.404776</v>
       </c>
       <c r="O3">
-        <v>0.243536425220596</v>
+        <v>0.2151446495736546</v>
       </c>
       <c r="P3">
-        <v>0.3104782211899454</v>
+        <v>0.2907140367125996</v>
       </c>
       <c r="Q3">
         <v>0.218413303732</v>
@@ -638,10 +638,10 @@
         <v>1.310479822392</v>
       </c>
       <c r="S3">
-        <v>0.243536425220596</v>
+        <v>0.2151446495736546</v>
       </c>
       <c r="T3">
-        <v>0.3104782211899454</v>
+        <v>0.2907140367125996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.492274500000001</v>
+        <v>0.008574</v>
       </c>
       <c r="N4">
-        <v>8.984549000000001</v>
+        <v>0.025722</v>
       </c>
       <c r="O4">
-        <v>0.6072587316327118</v>
+        <v>0.001023900098049123</v>
       </c>
       <c r="P4">
-        <v>0.5161188533463558</v>
+        <v>0.001383544193565374</v>
       </c>
       <c r="Q4">
-        <v>0.5446141605957501</v>
+        <v>0.001039456029</v>
       </c>
       <c r="R4">
-        <v>2.178456642383</v>
+        <v>0.006236736173999999</v>
       </c>
       <c r="S4">
-        <v>0.6072587316327118</v>
+        <v>0.001023900098049123</v>
       </c>
       <c r="T4">
-        <v>0.5161188533463558</v>
+        <v>0.001383544193565374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -741,31 +741,31 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7144463333333334</v>
+        <v>5.712803</v>
       </c>
       <c r="N5">
-        <v>2.143339</v>
+        <v>11.425606</v>
       </c>
       <c r="O5">
-        <v>0.09657775236122405</v>
+        <v>0.6822182822294519</v>
       </c>
       <c r="P5">
-        <v>0.1231244514346268</v>
+        <v>0.6145646077002448</v>
       </c>
       <c r="Q5">
-        <v>0.08661482955216668</v>
+        <v>0.6925831025004999</v>
       </c>
       <c r="R5">
-        <v>0.519688977313</v>
+        <v>2.770332410002</v>
       </c>
       <c r="S5">
-        <v>0.09657775236122405</v>
+        <v>0.6822182822294519</v>
       </c>
       <c r="T5">
-        <v>0.1231244514346268</v>
+        <v>0.6145646077002448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09661166666666667</v>
+        <v>0.03348933333333334</v>
       </c>
       <c r="N6">
-        <v>0.289835</v>
+        <v>0.100468</v>
       </c>
       <c r="O6">
-        <v>0.01305981594867418</v>
+        <v>0.003999268915745247</v>
       </c>
       <c r="P6">
-        <v>0.0166496179006471</v>
+        <v>0.005404008943283026</v>
       </c>
       <c r="Q6">
-        <v>0.01171257049083333</v>
+        <v>0.004060029092666667</v>
       </c>
       <c r="R6">
-        <v>0.07027542294500001</v>
+        <v>0.024360174556</v>
       </c>
       <c r="S6">
-        <v>0.01305981594867418</v>
+        <v>0.003999268915745247</v>
       </c>
       <c r="T6">
-        <v>0.0166496179006471</v>
+        <v>0.005404008943283026</v>
       </c>
     </row>
   </sheetData>
